--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2994.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2994.xlsx
@@ -354,7 +354,7 @@
         <v>2.47029417051346</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.281687763649217</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2994.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2994.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.183076547079228</v>
+        <v>1.933367848396301</v>
       </c>
       <c r="B1">
-        <v>2.47029417051346</v>
+        <v>1.994569778442383</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.031540393829346</v>
       </c>
       <c r="D1">
-        <v>2.281687763649217</v>
+        <v>2.565282821655273</v>
       </c>
       <c r="E1">
-        <v>1.19820547465034</v>
+        <v>3.325434684753418</v>
       </c>
     </row>
   </sheetData>
